--- a/data/每周分數累積.xlsx
+++ b/data/每周分數累積.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\永續溝通部\ESG_4.活動_2023起\20250808-11 健康達人\09. 報名人次整理&amp;活動統計\活動統計\00.分數鎖定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursor\projects\HealthMaster\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF8F81-EFDF-46BC-BFF0-A069749687C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D2EB9-1AF6-421D-9D8E-45C11E8DCB37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="574">
   <si>
     <t>所屬公司</t>
   </si>
@@ -1978,7 +1978,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2205,6 +2205,9 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2234,14 +2237,14 @@
     <tableColumn id="1" xr3:uid="{9BAF7C18-D59C-4F1F-8B6D-BCD943E0DA2F}" name="Company"/>
     <tableColumn id="2" xr3:uid="{7438E032-7A67-437B-A069-1100644FB0F0}" name="Department"/>
     <tableColumn id="3" xr3:uid="{1A40041B-5B22-46D9-A7B9-F1CF0B5F9651}" name="Name"/>
-    <tableColumn id="10" xr3:uid="{737766D8-230B-4711-87CE-9F4AEF758F28}" name="性別" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{737766D8-230B-4711-87CE-9F4AEF758F28}" name="性別" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(VLOOKUP(C2, '0831-0921'!D:F, 3, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DC393518-9664-4B25-B06F-715CBE07954C}" name="id">
       <calculatedColumnFormula>IFERROR(VLOOKUP(C2, 帳號整理!E:I, 5, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{835D4A2D-BF23-41AF-B635-6F27ABB139AF}" name="0808-0830">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(E2, '0808-0830'!F:AC, 24, FALSE), "")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{835D4A2D-BF23-41AF-B635-6F27ABB139AF}" name="0808-0830" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(E2, '0808-0830'!F:AB, 23, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{DF95E00D-0852-4C75-83A4-ABFE004ED9E7}" name="0831-0921">
       <calculatedColumnFormula>IFERROR(VLOOKUP(E2, '0831-0921'!E:AB, 23, FALSE), "")</calculatedColumnFormula>
@@ -2553,17 +2556,17 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="6" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>277</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>inft23053</v>
       </c>
       <c r="F2">
-        <f>IFERROR(VLOOKUP(E2, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E2, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>820</v>
       </c>
       <c r="G2">
@@ -2622,11 +2625,11 @@
         <v>1540</v>
       </c>
       <c r="J2">
-        <f>SUM(F2:I2)</f>
+        <f t="shared" ref="J2:J33" si="0">SUM(F2:I2)</f>
         <v>2360</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>inft23015</v>
       </c>
       <c r="F3">
-        <f>IFERROR(VLOOKUP(E3, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E3, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>870</v>
       </c>
       <c r="G3">
@@ -2653,11 +2656,11 @@
         <v>1450</v>
       </c>
       <c r="J3">
-        <f>SUM(F3:I3)</f>
+        <f t="shared" si="0"/>
         <v>2320</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>inft23046</v>
       </c>
       <c r="F4">
-        <f>IFERROR(VLOOKUP(E4, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E4, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>870</v>
       </c>
       <c r="G4">
@@ -2684,11 +2687,11 @@
         <v>1450</v>
       </c>
       <c r="J4">
-        <f>SUM(F4:I4)</f>
+        <f t="shared" si="0"/>
         <v>2320</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>inft23129</v>
       </c>
       <c r="F5">
-        <f>IFERROR(VLOOKUP(E5, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E5, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>680</v>
       </c>
       <c r="G5">
@@ -2715,11 +2718,11 @@
         <v>970</v>
       </c>
       <c r="J5">
-        <f>SUM(F5:I5)</f>
+        <f t="shared" si="0"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>inft23290</v>
       </c>
       <c r="F6">
-        <f>IFERROR(VLOOKUP(E6, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E6, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>610</v>
       </c>
       <c r="G6">
@@ -2746,11 +2749,11 @@
         <v>1040</v>
       </c>
       <c r="J6">
-        <f>SUM(F6:I6)</f>
+        <f t="shared" si="0"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>inft23076</v>
       </c>
       <c r="F7">
-        <f>IFERROR(VLOOKUP(E7, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E7, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>600</v>
       </c>
       <c r="G7">
@@ -2777,11 +2780,11 @@
         <v>960</v>
       </c>
       <c r="J7">
-        <f>SUM(F7:I7)</f>
+        <f t="shared" si="0"/>
         <v>1560</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>inft23019</v>
       </c>
       <c r="F8">
-        <f>IFERROR(VLOOKUP(E8, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E8, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>690</v>
       </c>
       <c r="G8">
@@ -2808,11 +2811,11 @@
         <v>860</v>
       </c>
       <c r="J8">
-        <f>SUM(F8:I8)</f>
+        <f t="shared" si="0"/>
         <v>1550</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>inft23092</v>
       </c>
       <c r="F9">
-        <f>IFERROR(VLOOKUP(E9, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E9, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>580</v>
       </c>
       <c r="G9">
@@ -2839,11 +2842,11 @@
         <v>710</v>
       </c>
       <c r="J9">
-        <f>SUM(F9:I9)</f>
+        <f t="shared" si="0"/>
         <v>1290</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>inft23013</v>
       </c>
       <c r="F10">
-        <f>IFERROR(VLOOKUP(E10, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E10, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>580</v>
       </c>
       <c r="G10">
@@ -2870,11 +2873,11 @@
         <v>540</v>
       </c>
       <c r="J10">
-        <f>SUM(F10:I10)</f>
+        <f t="shared" si="0"/>
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>inft23047</v>
       </c>
       <c r="F11">
-        <f>IFERROR(VLOOKUP(E11, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E11, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>610</v>
       </c>
       <c r="G11">
@@ -2901,11 +2904,11 @@
         <v>480</v>
       </c>
       <c r="J11">
-        <f>SUM(F11:I11)</f>
+        <f t="shared" si="0"/>
         <v>1090</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>inft23280</v>
       </c>
       <c r="F12">
-        <f>IFERROR(VLOOKUP(E12, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E12, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>430</v>
       </c>
       <c r="G12">
@@ -2932,11 +2935,11 @@
         <v>580</v>
       </c>
       <c r="J12">
-        <f>SUM(F12:I12)</f>
+        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>inft23276</v>
       </c>
       <c r="F13">
-        <f>IFERROR(VLOOKUP(E13, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E13, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>380</v>
       </c>
       <c r="G13">
@@ -2963,11 +2966,11 @@
         <v>580</v>
       </c>
       <c r="J13">
-        <f>SUM(F13:I13)</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>inft23072</v>
       </c>
       <c r="F14">
-        <f>IFERROR(VLOOKUP(E14, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E14, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>350</v>
       </c>
       <c r="G14">
@@ -2994,11 +2997,11 @@
         <v>600</v>
       </c>
       <c r="J14">
-        <f>SUM(F14:I14)</f>
+        <f t="shared" si="0"/>
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>inft23295</v>
       </c>
       <c r="F15">
-        <f>IFERROR(VLOOKUP(E15, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E15, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>290</v>
       </c>
       <c r="G15">
@@ -3025,11 +3028,11 @@
         <v>580</v>
       </c>
       <c r="J15">
-        <f>SUM(F15:I15)</f>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>inft23268</v>
       </c>
       <c r="F16">
-        <f>IFERROR(VLOOKUP(E16, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E16, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>370</v>
       </c>
       <c r="G16">
@@ -3056,11 +3059,11 @@
         <v>480</v>
       </c>
       <c r="J16">
-        <f>SUM(F16:I16)</f>
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>inft23273</v>
       </c>
       <c r="F17">
-        <f>IFERROR(VLOOKUP(E17, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E17, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>350</v>
       </c>
       <c r="G17">
@@ -3087,11 +3090,11 @@
         <v>420</v>
       </c>
       <c r="J17">
-        <f>SUM(F17:I17)</f>
+        <f t="shared" si="0"/>
         <v>770</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>inft23262</v>
       </c>
       <c r="F18">
-        <f>IFERROR(VLOOKUP(E18, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E18, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>380</v>
       </c>
       <c r="G18">
@@ -3118,11 +3121,11 @@
         <v>440</v>
       </c>
       <c r="J18">
-        <f>SUM(F18:I18)</f>
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>inft23096</v>
       </c>
       <c r="F19">
-        <f>IFERROR(VLOOKUP(E19, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E19, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>360</v>
       </c>
       <c r="G19">
@@ -3149,11 +3152,11 @@
         <v>330</v>
       </c>
       <c r="J19">
-        <f>SUM(F19:I19)</f>
+        <f t="shared" si="0"/>
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>inft23272</v>
       </c>
       <c r="F20">
-        <f>IFERROR(VLOOKUP(E20, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E20, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>340</v>
       </c>
       <c r="G20">
@@ -3180,11 +3183,11 @@
         <v>530</v>
       </c>
       <c r="J20">
-        <f>SUM(F20:I20)</f>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>inft23068</v>
       </c>
       <c r="F21">
-        <f>IFERROR(VLOOKUP(E21, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E21, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>340</v>
       </c>
       <c r="G21">
@@ -3211,11 +3214,11 @@
         <v>410</v>
       </c>
       <c r="J21">
-        <f>SUM(F21:I21)</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>inft23079</v>
       </c>
       <c r="F22">
-        <f>IFERROR(VLOOKUP(E22, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E22, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>320</v>
       </c>
       <c r="G22">
@@ -3242,11 +3245,11 @@
         <v>300</v>
       </c>
       <c r="J22">
-        <f>SUM(F22:I22)</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>inft23291</v>
       </c>
       <c r="F23">
-        <f>IFERROR(VLOOKUP(E23, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E23, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>270</v>
       </c>
       <c r="G23">
@@ -3273,11 +3276,11 @@
         <v>370</v>
       </c>
       <c r="J23">
-        <f>SUM(F23:I23)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>inft23029</v>
       </c>
       <c r="F24">
-        <f>IFERROR(VLOOKUP(E24, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E24, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>320</v>
       </c>
       <c r="G24">
@@ -3304,11 +3307,11 @@
         <v>300</v>
       </c>
       <c r="J24">
-        <f>SUM(F24:I24)</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>inft23265</v>
       </c>
       <c r="F25">
-        <f>IFERROR(VLOOKUP(E25, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E25, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>300</v>
       </c>
       <c r="G25">
@@ -3335,11 +3338,11 @@
         <v>390</v>
       </c>
       <c r="J25">
-        <f>SUM(F25:I25)</f>
+        <f t="shared" si="0"/>
         <v>690</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>inft23070</v>
       </c>
       <c r="F26">
-        <f>IFERROR(VLOOKUP(E26, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E26, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>310</v>
       </c>
       <c r="G26">
@@ -3366,11 +3369,11 @@
         <v>300</v>
       </c>
       <c r="J26">
-        <f>SUM(F26:I26)</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>inft23136</v>
       </c>
       <c r="F27">
-        <f>IFERROR(VLOOKUP(E27, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E27, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>350</v>
       </c>
       <c r="G27">
@@ -3397,11 +3400,11 @@
         <v>250</v>
       </c>
       <c r="J27">
-        <f>SUM(F27:I27)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>inft23108</v>
       </c>
       <c r="F28">
-        <f>IFERROR(VLOOKUP(E28, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E28, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>290</v>
       </c>
       <c r="G28">
@@ -3428,11 +3431,11 @@
         <v>310</v>
       </c>
       <c r="J28">
-        <f>SUM(F28:I28)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>inft23056</v>
       </c>
       <c r="F29">
-        <f>IFERROR(VLOOKUP(E29, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E29, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>270</v>
       </c>
       <c r="G29">
@@ -3459,11 +3462,11 @@
         <v>320</v>
       </c>
       <c r="J29">
-        <f>SUM(F29:I29)</f>
+        <f t="shared" si="0"/>
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>inft23023</v>
       </c>
       <c r="F30">
-        <f>IFERROR(VLOOKUP(E30, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E30, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>270</v>
       </c>
       <c r="G30">
@@ -3490,11 +3493,11 @@
         <v>300</v>
       </c>
       <c r="J30">
-        <f>SUM(F30:I30)</f>
+        <f t="shared" si="0"/>
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>inft23087</v>
       </c>
       <c r="F31">
-        <f>IFERROR(VLOOKUP(E31, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E31, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>290</v>
       </c>
       <c r="G31">
@@ -3521,11 +3524,11 @@
         <v>240</v>
       </c>
       <c r="J31">
-        <f>SUM(F31:I31)</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>inft23270</v>
       </c>
       <c r="F32">
-        <f>IFERROR(VLOOKUP(E32, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E32, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>260</v>
       </c>
       <c r="G32">
@@ -3552,11 +3555,11 @@
         <v>270</v>
       </c>
       <c r="J32">
-        <f>SUM(F32:I32)</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>inft23020</v>
       </c>
       <c r="F33">
-        <f>IFERROR(VLOOKUP(E33, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E33, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>230</v>
       </c>
       <c r="G33">
@@ -3583,11 +3586,11 @@
         <v>190</v>
       </c>
       <c r="J33">
-        <f>SUM(F33:I33)</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>inft23133</v>
       </c>
       <c r="F34">
-        <f>IFERROR(VLOOKUP(E34, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E34, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>230</v>
       </c>
       <c r="G34">
@@ -3614,11 +3617,11 @@
         <v>300</v>
       </c>
       <c r="J34">
-        <f>SUM(F34:I34)</f>
+        <f t="shared" ref="J34:J65" si="1">SUM(F34:I34)</f>
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>inft23103</v>
       </c>
       <c r="F35">
-        <f>IFERROR(VLOOKUP(E35, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E35, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>180</v>
       </c>
       <c r="G35">
@@ -3645,11 +3648,11 @@
         <v>290</v>
       </c>
       <c r="J35">
-        <f>SUM(F35:I35)</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>inft23139</v>
       </c>
       <c r="F36">
-        <f>IFERROR(VLOOKUP(E36, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E36, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>210</v>
       </c>
       <c r="G36">
@@ -3676,11 +3679,11 @@
         <v>340</v>
       </c>
       <c r="J36">
-        <f>SUM(F36:I36)</f>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>inft23297</v>
       </c>
       <c r="F37">
-        <f>IFERROR(VLOOKUP(E37, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E37, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>200</v>
       </c>
       <c r="G37">
@@ -3707,11 +3710,11 @@
         <v>130</v>
       </c>
       <c r="J37">
-        <f>SUM(F37:I37)</f>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>inft23062</v>
       </c>
       <c r="F38">
-        <f>IFERROR(VLOOKUP(E38, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E38, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>200</v>
       </c>
       <c r="G38">
@@ -3738,11 +3741,11 @@
         <v>690</v>
       </c>
       <c r="J38">
-        <f>SUM(F38:I38)</f>
+        <f t="shared" si="1"/>
         <v>890</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>inft23267</v>
       </c>
       <c r="F39">
-        <f>IFERROR(VLOOKUP(E39, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E39, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>230</v>
       </c>
       <c r="G39">
@@ -3769,11 +3772,11 @@
         <v>90</v>
       </c>
       <c r="J39">
-        <f>SUM(F39:I39)</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>inft23058</v>
       </c>
       <c r="F40">
-        <f>IFERROR(VLOOKUP(E40, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E40, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>190</v>
       </c>
       <c r="G40">
@@ -3800,11 +3803,11 @@
         <v>130</v>
       </c>
       <c r="J40">
-        <f>SUM(F40:I40)</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>inft23039</v>
       </c>
       <c r="F41">
-        <f>IFERROR(VLOOKUP(E41, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E41, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>180</v>
       </c>
       <c r="G41">
@@ -3831,11 +3834,11 @@
         <v>130</v>
       </c>
       <c r="J41">
-        <f>SUM(F41:I41)</f>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>inft23274</v>
       </c>
       <c r="F42">
-        <f>IFERROR(VLOOKUP(E42, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E42, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>180</v>
       </c>
       <c r="G42">
@@ -3862,11 +3865,11 @@
         <v>100</v>
       </c>
       <c r="J42">
-        <f>SUM(F42:I42)</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>inft23099</v>
       </c>
       <c r="F43">
-        <f>IFERROR(VLOOKUP(E43, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E43, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>210</v>
       </c>
       <c r="G43">
@@ -3893,11 +3896,11 @@
         <v>40</v>
       </c>
       <c r="J43">
-        <f>SUM(F43:I43)</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>inft23289</v>
       </c>
       <c r="F44">
-        <f>IFERROR(VLOOKUP(E44, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E44, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>180</v>
       </c>
       <c r="G44">
@@ -3924,11 +3927,11 @@
         <v>30</v>
       </c>
       <c r="J44">
-        <f>SUM(F44:I44)</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>inft23263</v>
       </c>
       <c r="F45">
-        <f>IFERROR(VLOOKUP(E45, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E45, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>150</v>
       </c>
       <c r="G45">
@@ -3955,11 +3958,11 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <f>SUM(F45:I45)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>inft23031</v>
       </c>
       <c r="F46">
-        <f>IFERROR(VLOOKUP(E46, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E46, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>120</v>
       </c>
       <c r="G46">
@@ -3986,11 +3989,11 @@
         <v>60</v>
       </c>
       <c r="J46">
-        <f>SUM(F46:I46)</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>inft23293</v>
       </c>
       <c r="F47">
-        <f>IFERROR(VLOOKUP(E47, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E47, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>110</v>
       </c>
       <c r="G47">
@@ -4017,11 +4020,11 @@
         <v>340</v>
       </c>
       <c r="J47">
-        <f>SUM(F47:I47)</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>inft23140</v>
       </c>
       <c r="F48">
-        <f>IFERROR(VLOOKUP(E48, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E48, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>110</v>
       </c>
       <c r="G48">
@@ -4048,11 +4051,11 @@
         <v>80</v>
       </c>
       <c r="J48">
-        <f>SUM(F48:I48)</f>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>inft23282</v>
       </c>
       <c r="F49">
-        <f>IFERROR(VLOOKUP(E49, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E49, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>100</v>
       </c>
       <c r="G49">
@@ -4079,11 +4082,11 @@
         <v>100</v>
       </c>
       <c r="J49">
-        <f>SUM(F49:I49)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>inft23081</v>
       </c>
       <c r="F50">
-        <f>IFERROR(VLOOKUP(E50, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E50, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>70</v>
       </c>
       <c r="G50">
@@ -4110,11 +4113,11 @@
         <v>80</v>
       </c>
       <c r="J50">
-        <f>SUM(F50:I50)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>inft23078</v>
       </c>
       <c r="F51">
-        <f>IFERROR(VLOOKUP(E51, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E51, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>90</v>
       </c>
       <c r="G51">
@@ -4141,11 +4144,11 @@
         <v>20</v>
       </c>
       <c r="J51">
-        <f>SUM(F51:I51)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>inft23033</v>
       </c>
       <c r="F52">
-        <f>IFERROR(VLOOKUP(E52, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E52, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>100</v>
       </c>
       <c r="G52">
@@ -4172,11 +4175,11 @@
         <v>40</v>
       </c>
       <c r="J52">
-        <f>SUM(F52:I52)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>inft23142</v>
       </c>
       <c r="F53">
-        <f>IFERROR(VLOOKUP(E53, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E53, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>80</v>
       </c>
       <c r="G53">
@@ -4203,11 +4206,11 @@
         <v>100</v>
       </c>
       <c r="J53">
-        <f>SUM(F53:I53)</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>inft23117</v>
       </c>
       <c r="F54">
-        <f>IFERROR(VLOOKUP(E54, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E54, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>90</v>
       </c>
       <c r="G54">
@@ -4234,11 +4237,11 @@
         <v>20</v>
       </c>
       <c r="J54">
-        <f>SUM(F54:I54)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>inft23003</v>
       </c>
       <c r="F55">
-        <f>IFERROR(VLOOKUP(E55, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E55, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>70</v>
       </c>
       <c r="G55">
@@ -4265,11 +4268,11 @@
         <v>40</v>
       </c>
       <c r="J55">
-        <f>SUM(F55:I55)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>inft23040</v>
       </c>
       <c r="F56">
-        <f>IFERROR(VLOOKUP(E56, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E56, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>50</v>
       </c>
       <c r="G56">
@@ -4296,11 +4299,11 @@
         <v>30</v>
       </c>
       <c r="J56">
-        <f>SUM(F56:I56)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>inft23277</v>
       </c>
       <c r="F57">
-        <f>IFERROR(VLOOKUP(E57, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E57, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>60</v>
       </c>
       <c r="G57">
@@ -4327,11 +4330,11 @@
         <v>40</v>
       </c>
       <c r="J57">
-        <f>SUM(F57:I57)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>inft23285</v>
       </c>
       <c r="F58">
-        <f>IFERROR(VLOOKUP(E58, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E58, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>70</v>
       </c>
       <c r="G58">
@@ -4358,11 +4361,11 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <f>SUM(F58:I58)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>inft23137</v>
       </c>
       <c r="F59">
-        <f>IFERROR(VLOOKUP(E59, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E59, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>50</v>
       </c>
       <c r="G59">
@@ -4389,11 +4392,11 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <f>SUM(F59:I59)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>inft23286</v>
       </c>
       <c r="F60">
-        <f>IFERROR(VLOOKUP(E60, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E60, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>40</v>
       </c>
       <c r="G60">
@@ -4420,11 +4423,11 @@
         <v>30</v>
       </c>
       <c r="J60">
-        <f>SUM(F60:I60)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>inft23300</v>
       </c>
       <c r="F61">
-        <f>IFERROR(VLOOKUP(E61, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E61, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>40</v>
       </c>
       <c r="G61">
@@ -4451,11 +4454,11 @@
         <v>30</v>
       </c>
       <c r="J61">
-        <f>SUM(F61:I61)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>inft23106</v>
       </c>
       <c r="F62">
-        <f>IFERROR(VLOOKUP(E62, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E62, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>60</v>
       </c>
       <c r="G62">
@@ -4482,11 +4485,11 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <f>SUM(F62:I62)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>inft23264</v>
       </c>
       <c r="F63">
-        <f>IFERROR(VLOOKUP(E63, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E63, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>30</v>
       </c>
       <c r="G63">
@@ -4513,11 +4516,11 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <f>SUM(F63:I63)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>inft23292</v>
       </c>
       <c r="F64">
-        <f>IFERROR(VLOOKUP(E64, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E64, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>30</v>
       </c>
       <c r="G64">
@@ -4544,11 +4547,11 @@
         <v>30</v>
       </c>
       <c r="J64">
-        <f>SUM(F64:I64)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -4567,7 +4570,7 @@
         <v>inft23287</v>
       </c>
       <c r="F65">
-        <f>IFERROR(VLOOKUP(E65, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E65, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>30</v>
       </c>
       <c r="G65">
@@ -4575,11 +4578,11 @@
         <v>30</v>
       </c>
       <c r="J65">
-        <f>SUM(F65:I65)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>inft23283</v>
       </c>
       <c r="F66">
-        <f>IFERROR(VLOOKUP(E66, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E66, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>20</v>
       </c>
       <c r="G66">
@@ -4606,11 +4609,11 @@
         <v>10</v>
       </c>
       <c r="J66">
-        <f>SUM(F66:I66)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J66:J97" si="2">SUM(F66:I66)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>inft23080</v>
       </c>
       <c r="F67">
-        <f>IFERROR(VLOOKUP(E67, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E67, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>10</v>
       </c>
       <c r="G67">
@@ -4637,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <f>SUM(F67:I67)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>inft23017</v>
       </c>
       <c r="F68">
-        <f>IFERROR(VLOOKUP(E68, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E68, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>10</v>
       </c>
       <c r="G68">
@@ -4668,11 +4671,11 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <f>SUM(F68:I68)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -4691,7 +4694,7 @@
         <v>inft23288</v>
       </c>
       <c r="F69">
-        <f>IFERROR(VLOOKUP(E69, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E69, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>10</v>
       </c>
       <c r="G69">
@@ -4699,11 +4702,11 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <f>SUM(F69:I69)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>inft23044</v>
       </c>
       <c r="F70">
-        <f>IFERROR(VLOOKUP(E70, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E70, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G70">
@@ -4730,11 +4733,11 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <f>SUM(F70:I70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>inft23094</v>
       </c>
       <c r="F71">
-        <f>IFERROR(VLOOKUP(E71, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E71, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G71">
@@ -4761,11 +4764,11 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <f>SUM(F71:I71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>inft23101</v>
       </c>
       <c r="F72">
-        <f>IFERROR(VLOOKUP(E72, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E72, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G72">
@@ -4792,11 +4795,11 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <f>SUM(F72:I72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>inft23146</v>
       </c>
       <c r="F73">
-        <f>IFERROR(VLOOKUP(E73, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E73, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G73">
@@ -4823,11 +4826,11 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <f>SUM(F73:I73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>inft23147</v>
       </c>
       <c r="F74">
-        <f>IFERROR(VLOOKUP(E74, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E74, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G74">
@@ -4854,11 +4857,11 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <f>SUM(F74:I74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>inft23021</v>
       </c>
       <c r="F75">
-        <f>IFERROR(VLOOKUP(E75, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E75, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G75">
@@ -4885,11 +4888,11 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <f>SUM(F75:I75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>inft23266</v>
       </c>
       <c r="F76">
-        <f>IFERROR(VLOOKUP(E76, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E76, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G76">
@@ -4916,11 +4919,11 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <f>SUM(F76:I76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>inft23028</v>
       </c>
       <c r="F77">
-        <f>IFERROR(VLOOKUP(E77, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E77, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G77">
@@ -4947,11 +4950,11 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <f>SUM(F77:I77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>inft23269</v>
       </c>
       <c r="F78">
-        <f>IFERROR(VLOOKUP(E78, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E78, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G78">
@@ -4978,11 +4981,11 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <f>SUM(F78:I78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>inft23143</v>
       </c>
       <c r="F79">
-        <f>IFERROR(VLOOKUP(E79, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E79, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G79">
@@ -5009,11 +5012,11 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <f>SUM(F79:I79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>inft23275</v>
       </c>
       <c r="F80">
-        <f>IFERROR(VLOOKUP(E80, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E80, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G80">
@@ -5040,11 +5043,11 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <f>SUM(F80:I80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>inft23294</v>
       </c>
       <c r="F81">
-        <f>IFERROR(VLOOKUP(E81, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E81, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G81">
@@ -5071,11 +5074,11 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <f>SUM(F81:I81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>inft23271</v>
       </c>
       <c r="F82">
-        <f>IFERROR(VLOOKUP(E82, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E82, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G82">
@@ -5102,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <f>SUM(F82:I82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>inft23284</v>
       </c>
       <c r="F83">
-        <f>IFERROR(VLOOKUP(E83, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E83, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G83">
@@ -5133,11 +5136,11 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <f>SUM(F83:I83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>inft23296</v>
       </c>
       <c r="F84">
-        <f>IFERROR(VLOOKUP(E84, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E84, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G84">
@@ -5164,11 +5167,11 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <f>SUM(F84:I84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>inft23298</v>
       </c>
       <c r="F85">
-        <f>IFERROR(VLOOKUP(E85, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E85, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G85">
@@ -5195,11 +5198,11 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <f>SUM(F85:I85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>inft23148</v>
       </c>
       <c r="F86">
-        <f>IFERROR(VLOOKUP(E86, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E86, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G86">
@@ -5226,11 +5229,11 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <f>SUM(F86:I86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>inft23278</v>
       </c>
       <c r="F87">
-        <f>IFERROR(VLOOKUP(E87, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E87, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G87">
@@ -5257,11 +5260,11 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <f>SUM(F87:I87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>inft23279</v>
       </c>
       <c r="F88">
-        <f>IFERROR(VLOOKUP(E88, '0808-0830'!F:AC, 24, FALSE), "")</f>
+        <f>IFERROR(VLOOKUP(E88, '0808-0830'!F:AB, 23, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="G88">
@@ -5288,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <f>SUM(F88:I88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5304,18 +5307,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D51E3F5-A868-49A8-A26D-3FEE9F98D4DC}">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="29" max="29" width="8.796875" style="7"/>
+    <col min="28" max="28" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5395,16 +5398,13 @@
         <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5473,16 +5473,13 @@
         <v>40</v>
       </c>
       <c r="AA2">
-        <v>30</v>
-      </c>
-      <c r="AB2">
         <v>870</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AB2" s="7">
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5548,16 +5545,13 @@
         <v>20</v>
       </c>
       <c r="AA3">
-        <v>30</v>
-      </c>
-      <c r="AB3">
         <v>870</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AB3" s="7">
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5626,16 +5620,13 @@
         <v>40</v>
       </c>
       <c r="AA4">
-        <v>30</v>
-      </c>
-      <c r="AB4">
         <v>820</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AB4" s="7">
         <v>820</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5701,16 +5692,13 @@
         <v>30</v>
       </c>
       <c r="AA5">
-        <v>30</v>
-      </c>
-      <c r="AB5">
         <v>690</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AB5" s="7">
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5779,16 +5767,13 @@
         <v>30</v>
       </c>
       <c r="AA6">
-        <v>30</v>
-      </c>
-      <c r="AB6">
         <v>680</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AB6" s="7">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5854,16 +5839,13 @@
         <v>40</v>
       </c>
       <c r="AA7">
-        <v>30</v>
-      </c>
-      <c r="AB7">
         <v>610</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AB7" s="7">
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -5907,14 +5889,14 @@
       <c r="N8">
         <v>390</v>
       </c>
-      <c r="AB8">
+      <c r="AA8">
         <v>610</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AB8" s="7">
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -5974,16 +5956,13 @@
         <v>20</v>
       </c>
       <c r="AA9">
-        <v>30</v>
-      </c>
-      <c r="AB9">
         <v>600</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AB9" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6055,16 +6034,13 @@
         <v>30</v>
       </c>
       <c r="AA10">
-        <v>30</v>
-      </c>
-      <c r="AB10">
         <v>580</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AB10" s="7">
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -6136,16 +6112,13 @@
         <v>40</v>
       </c>
       <c r="AA11">
-        <v>30</v>
-      </c>
-      <c r="AB11">
         <v>580</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AB11" s="7">
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -6202,16 +6175,13 @@
         <v>30</v>
       </c>
       <c r="AA12">
-        <v>30</v>
-      </c>
-      <c r="AB12">
         <v>430</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AB12" s="7">
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -6271,16 +6241,13 @@
         <v>30</v>
       </c>
       <c r="AA13">
-        <v>30</v>
-      </c>
-      <c r="AB13">
         <v>380</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AB13" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6340,16 +6307,13 @@
         <v>30</v>
       </c>
       <c r="AA14">
-        <v>30</v>
-      </c>
-      <c r="AB14">
         <v>380</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AB14" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -6409,16 +6373,13 @@
         <v>30</v>
       </c>
       <c r="AA15">
-        <v>30</v>
-      </c>
-      <c r="AB15">
         <v>370</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AB15" s="7">
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -6478,16 +6439,13 @@
         <v>40</v>
       </c>
       <c r="AA16">
-        <v>30</v>
-      </c>
-      <c r="AB16">
         <v>360</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AB16" s="7">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -6544,16 +6502,13 @@
         <v>20</v>
       </c>
       <c r="AA17">
-        <v>30</v>
-      </c>
-      <c r="AB17">
         <v>350</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AB17" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -6609,14 +6564,14 @@
       <c r="Y18">
         <v>30</v>
       </c>
-      <c r="AB18">
+      <c r="AA18">
         <v>350</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AB18" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6679,16 +6634,13 @@
         <v>30</v>
       </c>
       <c r="AA19">
-        <v>30</v>
-      </c>
-      <c r="AB19">
         <v>350</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AB19" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6747,14 +6699,14 @@
       <c r="X20">
         <v>20</v>
       </c>
-      <c r="AB20">
+      <c r="AA20">
         <v>340</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AB20" s="7">
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -6808,16 +6760,13 @@
         <v>30</v>
       </c>
       <c r="AA21">
-        <v>30</v>
-      </c>
-      <c r="AB21">
         <v>340</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AB21" s="7">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -6870,14 +6819,14 @@
       <c r="X22">
         <v>20</v>
       </c>
-      <c r="AB22">
+      <c r="AA22">
         <v>320</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AB22" s="7">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -6927,14 +6876,14 @@
       <c r="Z23">
         <v>40</v>
       </c>
-      <c r="AB23">
+      <c r="AA23">
         <v>320</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AB23" s="7">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -6988,16 +6937,13 @@
         <v>40</v>
       </c>
       <c r="AA24">
-        <v>30</v>
-      </c>
-      <c r="AB24">
         <v>310</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AB24" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7048,16 +6994,13 @@
         <v>30</v>
       </c>
       <c r="AA25">
-        <v>30</v>
-      </c>
-      <c r="AB25">
         <v>300</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AB25" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -7108,16 +7051,13 @@
         <v>40</v>
       </c>
       <c r="AA26">
-        <v>30</v>
-      </c>
-      <c r="AB26">
         <v>290</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AB26" s="7">
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -7176,14 +7116,14 @@
       <c r="Z27">
         <v>40</v>
       </c>
-      <c r="AB27">
+      <c r="AA27">
         <v>290</v>
       </c>
-      <c r="AC27" s="7">
+      <c r="AB27" s="7">
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -7227,14 +7167,14 @@
       <c r="N28">
         <v>30</v>
       </c>
-      <c r="AB28">
+      <c r="AA28">
         <v>290</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AB28" s="7">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -7297,16 +7237,13 @@
         <v>40</v>
       </c>
       <c r="AA29">
-        <v>30</v>
-      </c>
-      <c r="AB29">
         <v>270</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AB29" s="7">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7372,16 +7309,13 @@
         <v>40</v>
       </c>
       <c r="AA30">
-        <v>30</v>
-      </c>
-      <c r="AB30">
         <v>270</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AB30" s="7">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -7431,14 +7365,14 @@
       <c r="X31">
         <v>20</v>
       </c>
-      <c r="AB31">
+      <c r="AA31">
         <v>270</v>
       </c>
-      <c r="AC31" s="7">
+      <c r="AB31" s="7">
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -7482,14 +7416,14 @@
       <c r="N32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB32">
+      <c r="AA32">
         <v>260</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AB32" s="7">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -7549,16 +7483,13 @@
         <v>40</v>
       </c>
       <c r="AA33">
-        <v>30</v>
-      </c>
-      <c r="AB33">
         <v>230</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AB33" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -7614,14 +7545,14 @@
       <c r="Z34">
         <v>40</v>
       </c>
-      <c r="AB34">
+      <c r="AA34">
         <v>230</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AB34" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -7669,16 +7600,13 @@
         <v>40</v>
       </c>
       <c r="AA35">
-        <v>30</v>
-      </c>
-      <c r="AB35">
         <v>230</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AB35" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -7723,16 +7651,13 @@
         <v>#N/A</v>
       </c>
       <c r="AA36">
-        <v>30</v>
-      </c>
-      <c r="AB36">
         <v>210</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AB36" s="7">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -7785,14 +7710,14 @@
       <c r="Z37">
         <v>40</v>
       </c>
-      <c r="AB37">
+      <c r="AA37">
         <v>210</v>
       </c>
-      <c r="AC37" s="7">
+      <c r="AB37" s="7">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -7837,16 +7762,13 @@
         <v>#N/A</v>
       </c>
       <c r="AA38">
-        <v>30</v>
-      </c>
-      <c r="AB38">
         <v>200</v>
       </c>
-      <c r="AC38" s="7">
+      <c r="AB38" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -7905,14 +7827,14 @@
       <c r="Z39">
         <v>40</v>
       </c>
-      <c r="AB39">
+      <c r="AA39">
         <v>200</v>
       </c>
-      <c r="AC39" s="7">
+      <c r="AB39" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -7959,14 +7881,14 @@
       <c r="O40">
         <v>10</v>
       </c>
-      <c r="AB40">
+      <c r="AA40">
         <v>190</v>
       </c>
-      <c r="AC40" s="7">
+      <c r="AB40" s="7">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -8014,16 +7936,13 @@
         <v>30</v>
       </c>
       <c r="AA41">
-        <v>30</v>
-      </c>
-      <c r="AB41">
         <v>180</v>
       </c>
-      <c r="AC41" s="7">
+      <c r="AB41" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -8070,14 +7989,14 @@
       <c r="U42">
         <v>20</v>
       </c>
-      <c r="AB42">
+      <c r="AA42">
         <v>180</v>
       </c>
-      <c r="AC42" s="7">
+      <c r="AB42" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -8124,14 +8043,14 @@
       <c r="S43">
         <v>30</v>
       </c>
-      <c r="AB43">
+      <c r="AA43">
         <v>180</v>
       </c>
-      <c r="AC43" s="7">
+      <c r="AB43" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -8175,14 +8094,14 @@
       <c r="N44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB44">
+      <c r="AA44">
         <v>180</v>
       </c>
-      <c r="AC44" s="7">
+      <c r="AB44" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -8226,14 +8145,14 @@
       <c r="V45">
         <v>20</v>
       </c>
-      <c r="AB45">
+      <c r="AA45">
         <v>150</v>
       </c>
-      <c r="AC45" s="7">
+      <c r="AB45" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -8277,14 +8196,14 @@
       <c r="N46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB46">
+      <c r="AA46">
         <v>120</v>
       </c>
-      <c r="AC46" s="7">
+      <c r="AB46" s="7">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -8331,14 +8250,14 @@
       <c r="Z47">
         <v>40</v>
       </c>
-      <c r="AB47">
+      <c r="AA47">
         <v>110</v>
       </c>
-      <c r="AC47" s="7">
+      <c r="AB47" s="7">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -8385,14 +8304,14 @@
       <c r="Y48">
         <v>30</v>
       </c>
-      <c r="AB48">
+      <c r="AA48">
         <v>110</v>
       </c>
-      <c r="AC48" s="7">
+      <c r="AB48" s="7">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -8442,14 +8361,14 @@
       <c r="X49">
         <v>20</v>
       </c>
-      <c r="AB49">
+      <c r="AA49">
         <v>100</v>
       </c>
-      <c r="AC49" s="7">
+      <c r="AB49" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8503,16 +8422,13 @@
         <v>30</v>
       </c>
       <c r="AA50">
-        <v>30</v>
-      </c>
-      <c r="AB50">
         <v>100</v>
       </c>
-      <c r="AC50" s="7">
+      <c r="AB50" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -8559,14 +8475,14 @@
       <c r="Z51">
         <v>40</v>
       </c>
-      <c r="AB51">
+      <c r="AA51">
         <v>90</v>
       </c>
-      <c r="AC51" s="7">
+      <c r="AB51" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -8610,14 +8526,14 @@
       <c r="N52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB52">
+      <c r="AA52">
         <v>90</v>
       </c>
-      <c r="AC52" s="7">
+      <c r="AB52" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -8661,14 +8577,14 @@
       <c r="N53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB53">
+      <c r="AA53">
         <v>80</v>
       </c>
-      <c r="AC53" s="7">
+      <c r="AB53" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -8712,14 +8628,14 @@
       <c r="N54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB54">
+      <c r="AA54">
         <v>70</v>
       </c>
-      <c r="AC54" s="7">
+      <c r="AB54" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -8766,14 +8682,14 @@
       <c r="O55">
         <v>10</v>
       </c>
-      <c r="AB55">
+      <c r="AA55">
         <v>70</v>
       </c>
-      <c r="AC55" s="7">
+      <c r="AB55" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -8820,14 +8736,14 @@
       <c r="O56">
         <v>10</v>
       </c>
-      <c r="AB56">
+      <c r="AA56">
         <v>70</v>
       </c>
-      <c r="AC56" s="7">
+      <c r="AB56" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -8871,14 +8787,14 @@
       <c r="N57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB57">
+      <c r="AA57">
         <v>60</v>
       </c>
-      <c r="AC57" s="7">
+      <c r="AB57" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -8922,14 +8838,14 @@
       <c r="N58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB58">
+      <c r="AA58">
         <v>60</v>
       </c>
-      <c r="AC58" s="7">
+      <c r="AB58" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -8973,14 +8889,14 @@
       <c r="N59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB59">
+      <c r="AA59">
         <v>50</v>
       </c>
-      <c r="AC59" s="7">
+      <c r="AB59" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -9027,14 +8943,14 @@
       <c r="O60">
         <v>10</v>
       </c>
-      <c r="AB60">
+      <c r="AA60">
         <v>50</v>
       </c>
-      <c r="AC60" s="7">
+      <c r="AB60" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -9078,14 +8994,14 @@
       <c r="N61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB61">
+      <c r="AA61">
         <v>40</v>
       </c>
-      <c r="AC61" s="7">
+      <c r="AB61" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -9129,14 +9045,14 @@
       <c r="N62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB62">
+      <c r="AA62">
         <v>40</v>
       </c>
-      <c r="AC62" s="7">
+      <c r="AB62" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -9171,14 +9087,14 @@
       <c r="N63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB63">
-        <v>30</v>
-      </c>
-      <c r="AC63" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA63">
+        <v>30</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -9225,14 +9141,14 @@
       <c r="O64">
         <v>10</v>
       </c>
-      <c r="AB64">
-        <v>30</v>
-      </c>
-      <c r="AC64" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA64">
+        <v>30</v>
+      </c>
+      <c r="AB64" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -9276,14 +9192,14 @@
       <c r="N65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB65">
-        <v>30</v>
-      </c>
-      <c r="AC65" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA65">
+        <v>30</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -9327,14 +9243,14 @@
       <c r="N66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB66">
-        <v>20</v>
-      </c>
-      <c r="AC66" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA66">
+        <v>20</v>
+      </c>
+      <c r="AB66" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -9378,14 +9294,14 @@
       <c r="N67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB67">
+      <c r="AA67">
         <v>10</v>
       </c>
-      <c r="AC67" s="7">
+      <c r="AB67" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -9429,14 +9345,14 @@
       <c r="N68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB68">
+      <c r="AA68">
         <v>10</v>
       </c>
-      <c r="AC68" s="7">
+      <c r="AB68" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -9480,14 +9396,14 @@
       <c r="N69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB69">
+      <c r="AA69">
         <v>10</v>
       </c>
-      <c r="AC69" s="7">
+      <c r="AB69" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -9531,14 +9447,14 @@
       <c r="N70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -9582,14 +9498,14 @@
       <c r="N71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -9633,14 +9549,14 @@
       <c r="N72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -9684,14 +9600,14 @@
       <c r="N73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -9735,14 +9651,14 @@
       <c r="N74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -9786,14 +9702,14 @@
       <c r="N75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -9831,14 +9747,14 @@
       <c r="N76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -9882,14 +9798,14 @@
       <c r="N77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -9933,14 +9849,14 @@
       <c r="N78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -9984,14 +9900,14 @@
       <c r="N79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -10035,14 +9951,14 @@
       <c r="N80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -10086,14 +10002,14 @@
       <c r="N81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -10137,14 +10053,14 @@
       <c r="N82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -10188,14 +10104,14 @@
       <c r="N83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -10239,14 +10155,14 @@
       <c r="N84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -10290,14 +10206,14 @@
       <c r="N85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -10341,14 +10257,14 @@
       <c r="N86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -10392,14 +10308,14 @@
       <c r="N87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -10443,14 +10359,14 @@
       <c r="N88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F89" t="str">
         <f>IFERROR(VLOOKUP(E89, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10470,14 +10386,14 @@
       <c r="N89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB89">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F90" t="str">
         <f>IFERROR(VLOOKUP(E90, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10497,14 +10413,14 @@
       <c r="N90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
-      <c r="AC90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F91" t="str">
         <f>IFERROR(VLOOKUP(E91, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10524,14 +10440,14 @@
       <c r="N91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB91">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F92" t="str">
         <f>IFERROR(VLOOKUP(E92, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10551,14 +10467,14 @@
       <c r="N92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB92">
-        <v>0</v>
-      </c>
-      <c r="AC92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F93" t="str">
         <f>IFERROR(VLOOKUP(E93, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10578,14 +10494,14 @@
       <c r="N93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F94" t="str">
         <f>IFERROR(VLOOKUP(E94, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10605,14 +10521,14 @@
       <c r="N94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F95" t="str">
         <f>IFERROR(VLOOKUP(E95, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10632,14 +10548,14 @@
       <c r="N95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F96" t="str">
         <f>IFERROR(VLOOKUP(E96, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10659,14 +10575,14 @@
       <c r="N96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB96">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F97" t="str">
         <f>IFERROR(VLOOKUP(E97, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10686,14 +10602,14 @@
       <c r="N97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB97">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F98" t="str">
         <f>IFERROR(VLOOKUP(E98, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10713,14 +10629,14 @@
       <c r="N98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB98">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F99" t="str">
         <f>IFERROR(VLOOKUP(E99, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10740,14 +10656,14 @@
       <c r="N99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB99">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F100" t="str">
         <f>IFERROR(VLOOKUP(E100, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10767,14 +10683,14 @@
       <c r="N100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F101" t="str">
         <f>IFERROR(VLOOKUP(E101, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10794,14 +10710,14 @@
       <c r="N101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB101">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F102" t="str">
         <f>IFERROR(VLOOKUP(E102, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10821,14 +10737,14 @@
       <c r="N102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB102">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F103" t="str">
         <f>IFERROR(VLOOKUP(E103, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10848,14 +10764,14 @@
       <c r="N103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F104" t="str">
         <f>IFERROR(VLOOKUP(E104, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10875,14 +10791,14 @@
       <c r="N104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
-      <c r="AC104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F105" t="str">
         <f>IFERROR(VLOOKUP(E105, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10902,14 +10818,14 @@
       <c r="N105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB105">
-        <v>0</v>
-      </c>
-      <c r="AC105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F106" t="str">
         <f>IFERROR(VLOOKUP(E106, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10929,14 +10845,14 @@
       <c r="N106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB106">
-        <v>0</v>
-      </c>
-      <c r="AC106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F107" t="str">
         <f>IFERROR(VLOOKUP(E107, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10956,14 +10872,14 @@
       <c r="N107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB107">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F108" t="str">
         <f>IFERROR(VLOOKUP(E108, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -10983,14 +10899,14 @@
       <c r="N108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB108">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F109" t="str">
         <f>IFERROR(VLOOKUP(E109, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11010,14 +10926,14 @@
       <c r="N109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB109">
-        <v>0</v>
-      </c>
-      <c r="AC109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F110" t="str">
         <f>IFERROR(VLOOKUP(E110, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11037,14 +10953,14 @@
       <c r="N110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB110">
-        <v>0</v>
-      </c>
-      <c r="AC110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F111" t="str">
         <f>IFERROR(VLOOKUP(E111, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11064,14 +10980,14 @@
       <c r="N111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB111">
-        <v>0</v>
-      </c>
-      <c r="AC111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F112" t="str">
         <f>IFERROR(VLOOKUP(E112, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11091,14 +11007,14 @@
       <c r="N112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB112">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F113" t="str">
         <f>IFERROR(VLOOKUP(E113, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11118,14 +11034,14 @@
       <c r="N113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
-      <c r="AC113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F114" t="str">
         <f>IFERROR(VLOOKUP(E114, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11145,14 +11061,14 @@
       <c r="N114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB114">
-        <v>0</v>
-      </c>
-      <c r="AC114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F115" t="str">
         <f>IFERROR(VLOOKUP(E115, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11172,14 +11088,14 @@
       <c r="N115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
-      <c r="AC115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F116" t="str">
         <f>IFERROR(VLOOKUP(E116, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11199,14 +11115,14 @@
       <c r="N116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB116">
-        <v>0</v>
-      </c>
-      <c r="AC116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F117" t="str">
         <f>IFERROR(VLOOKUP(E117, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11226,14 +11142,14 @@
       <c r="N117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB117">
-        <v>0</v>
-      </c>
-      <c r="AC117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F118" t="str">
         <f>IFERROR(VLOOKUP(E118, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11253,14 +11169,14 @@
       <c r="N118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB118">
-        <v>0</v>
-      </c>
-      <c r="AC118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F119" t="str">
         <f>IFERROR(VLOOKUP(E119, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11280,14 +11196,14 @@
       <c r="N119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB119">
-        <v>0</v>
-      </c>
-      <c r="AC119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F120" t="str">
         <f>IFERROR(VLOOKUP(E120, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11307,14 +11223,14 @@
       <c r="N120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
-      <c r="AC120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F121" t="str">
         <f>IFERROR(VLOOKUP(E121, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11334,14 +11250,14 @@
       <c r="N121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB121">
-        <v>0</v>
-      </c>
-      <c r="AC121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F122" t="str">
         <f>IFERROR(VLOOKUP(E122, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11361,14 +11277,14 @@
       <c r="N122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB122">
-        <v>0</v>
-      </c>
-      <c r="AC122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F123" t="str">
         <f>IFERROR(VLOOKUP(E123, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11388,14 +11304,14 @@
       <c r="N123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB123">
-        <v>0</v>
-      </c>
-      <c r="AC123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F124" t="str">
         <f>IFERROR(VLOOKUP(E124, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11415,14 +11331,14 @@
       <c r="N124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB124">
-        <v>0</v>
-      </c>
-      <c r="AC124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F125" t="str">
         <f>IFERROR(VLOOKUP(E125, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11442,14 +11358,14 @@
       <c r="N125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB125">
-        <v>0</v>
-      </c>
-      <c r="AC125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F126" t="str">
         <f>IFERROR(VLOOKUP(E126, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11469,14 +11385,14 @@
       <c r="N126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB126">
-        <v>0</v>
-      </c>
-      <c r="AC126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F127" t="str">
         <f>IFERROR(VLOOKUP(E127, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11496,14 +11412,14 @@
       <c r="N127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB127">
-        <v>0</v>
-      </c>
-      <c r="AC127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F128" t="str">
         <f>IFERROR(VLOOKUP(E128, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11523,14 +11439,14 @@
       <c r="N128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
-      <c r="AC128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F129" t="str">
         <f>IFERROR(VLOOKUP(E129, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11550,14 +11466,14 @@
       <c r="N129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB129">
-        <v>0</v>
-      </c>
-      <c r="AC129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F130" t="str">
         <f>IFERROR(VLOOKUP(E130, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11577,14 +11493,14 @@
       <c r="N130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB130">
-        <v>0</v>
-      </c>
-      <c r="AC130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F131" t="str">
         <f>IFERROR(VLOOKUP(E131, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11604,14 +11520,14 @@
       <c r="N131" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB131">
-        <v>0</v>
-      </c>
-      <c r="AC131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F132" t="str">
         <f>IFERROR(VLOOKUP(E132, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11631,14 +11547,14 @@
       <c r="N132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB132">
-        <v>0</v>
-      </c>
-      <c r="AC132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F133" t="str">
         <f>IFERROR(VLOOKUP(E133, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11658,14 +11574,14 @@
       <c r="N133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB133">
-        <v>0</v>
-      </c>
-      <c r="AC133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F134" t="str">
         <f>IFERROR(VLOOKUP(E134, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11685,14 +11601,14 @@
       <c r="N134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB134">
-        <v>0</v>
-      </c>
-      <c r="AC134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F135" t="str">
         <f>IFERROR(VLOOKUP(E135, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11712,14 +11628,14 @@
       <c r="N135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB135">
-        <v>0</v>
-      </c>
-      <c r="AC135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F136" t="str">
         <f>IFERROR(VLOOKUP(E136, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11739,14 +11655,14 @@
       <c r="N136" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB136">
-        <v>0</v>
-      </c>
-      <c r="AC136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F137" t="str">
         <f>IFERROR(VLOOKUP(E137, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11766,14 +11682,14 @@
       <c r="N137" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
-      <c r="AC137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F138" t="str">
         <f>IFERROR(VLOOKUP(E138, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11793,14 +11709,14 @@
       <c r="N138" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB138">
-        <v>0</v>
-      </c>
-      <c r="AC138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F139" t="str">
         <f>IFERROR(VLOOKUP(E139, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11820,14 +11736,14 @@
       <c r="N139" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB139">
-        <v>0</v>
-      </c>
-      <c r="AC139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F140" t="str">
         <f>IFERROR(VLOOKUP(E140, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11847,14 +11763,14 @@
       <c r="N140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB140">
-        <v>0</v>
-      </c>
-      <c r="AC140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F141" t="str">
         <f>IFERROR(VLOOKUP(E141, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11874,14 +11790,14 @@
       <c r="N141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB141">
-        <v>0</v>
-      </c>
-      <c r="AC141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F142" t="str">
         <f>IFERROR(VLOOKUP(E142, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11901,14 +11817,14 @@
       <c r="N142" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB142">
-        <v>0</v>
-      </c>
-      <c r="AC142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F143" t="str">
         <f>IFERROR(VLOOKUP(E143, 帳號整理!E:I, 5, FALSE), "")</f>
         <v/>
@@ -11928,10 +11844,10 @@
       <c r="N143" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB143">
-        <v>0</v>
-      </c>
-      <c r="AC143" s="7">
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11950,12 +11866,12 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="28" max="28" width="8.796875" style="7"/>
+    <col min="28" max="28" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12041,7 +11957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -12128,7 +12044,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -12200,7 +12116,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -12281,7 +12197,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -12359,7 +12275,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -12437,7 +12353,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12521,7 +12437,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -12587,7 +12503,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -12656,7 +12572,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -12722,7 +12638,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12797,7 +12713,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -12869,7 +12785,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -12953,7 +12869,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -13028,7 +12944,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -13100,7 +13016,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -13166,7 +13082,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -13214,7 +13130,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -13280,7 +13196,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -13343,7 +13259,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -13409,7 +13325,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -13478,7 +13394,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -13544,7 +13460,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -13619,7 +13535,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -13682,7 +13598,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -13736,7 +13652,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -13796,7 +13712,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -13871,7 +13787,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -13934,7 +13850,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -13991,7 +13907,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -14039,7 +13955,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -14096,7 +14012,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -14153,7 +14069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -14207,7 +14123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -14273,7 +14189,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -14321,7 +14237,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -14372,7 +14288,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -14420,7 +14336,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -14486,7 +14402,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -14543,7 +14459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -14591,7 +14507,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -14639,7 +14555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -14693,7 +14609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -14744,7 +14660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -14792,7 +14708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -14840,7 +14756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -14891,7 +14807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -14939,7 +14855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -14987,7 +14903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -15038,7 +14954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -15089,7 +15005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -15137,7 +15053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -15185,7 +15101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -15233,7 +15149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -15281,7 +15197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>195</v>
       </c>
@@ -15329,7 +15245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -15377,7 +15293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -15425,7 +15341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -15473,7 +15389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -15521,7 +15437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -15569,7 +15485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -15617,7 +15533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -15662,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>171</v>
       </c>
@@ -15710,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -15758,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -15806,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>171</v>
       </c>
@@ -15845,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -15893,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -15941,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -15989,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -16037,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -16085,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -16133,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -16181,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>225</v>
       </c>
@@ -16229,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -16277,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -16319,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>234</v>
       </c>
@@ -16367,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -16415,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -16463,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -16511,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>243</v>
       </c>
@@ -16559,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -16607,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -16655,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -16703,7 +16619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>126</v>
       </c>
@@ -16751,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -16799,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -16847,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -16910,26 +16826,26 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.8984375" customWidth="1"/>
-    <col min="2" max="2" width="25.8984375" customWidth="1"/>
-    <col min="3" max="3" width="43.8984375" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.09765625" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" customWidth="1"/>
-    <col min="12" max="12" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3984375" customWidth="1"/>
-    <col min="14" max="14" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.69921875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16976,7 +16892,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -17022,7 +16938,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -17069,7 +16985,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -17115,7 +17031,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -17161,7 +17077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -17207,7 +17123,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -17253,7 +17169,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -17301,7 +17217,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -17347,7 +17263,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -17393,7 +17309,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -17439,7 +17355,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -17485,7 +17401,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -17532,7 +17448,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -17578,7 +17494,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -17624,7 +17540,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -17670,7 +17586,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -17716,7 +17632,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -17762,7 +17678,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -17808,7 +17724,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -17854,7 +17770,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -17901,7 +17817,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -17947,7 +17863,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -17993,7 +17909,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -18039,7 +17955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -18085,7 +18001,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -18132,7 +18048,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -18178,7 +18094,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -18224,7 +18140,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -18270,7 +18186,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -18316,7 +18232,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -18364,7 +18280,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -18410,7 +18326,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -18458,7 +18374,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -18504,7 +18420,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -18550,7 +18466,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -18596,7 +18512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
@@ -18642,7 +18558,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -18690,7 +18606,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -18736,7 +18652,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -18782,7 +18698,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -18828,7 +18744,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
@@ -18874,7 +18790,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -18922,7 +18838,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -18968,7 +18884,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>104</v>
       </c>
@@ -19016,7 +18932,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
@@ -19064,7 +18980,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>27</v>
       </c>
@@ -19112,7 +19028,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
@@ -19160,7 +19076,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>27</v>
       </c>
@@ -19208,7 +19124,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -19256,7 +19172,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
@@ -19302,7 +19218,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>27</v>
       </c>
@@ -19339,7 +19255,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -19374,7 +19290,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
@@ -19423,7 +19339,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>27</v>
       </c>
@@ -19463,7 +19379,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>27</v>
       </c>
@@ -19512,7 +19428,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>27</v>
       </c>
@@ -19561,7 +19477,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>27</v>
       </c>
@@ -19610,7 +19526,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>40</v>
       </c>
@@ -19659,7 +19575,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
@@ -19708,7 +19624,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
@@ -19757,7 +19673,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
@@ -19806,7 +19722,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
@@ -19855,7 +19771,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>27</v>
       </c>
@@ -19904,7 +19820,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -19953,7 +19869,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
@@ -20002,7 +19918,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
@@ -20051,7 +19967,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
@@ -20100,7 +20016,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
@@ -20149,7 +20065,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -20198,7 +20114,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
@@ -20247,7 +20163,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>40</v>
       </c>
@@ -20296,7 +20212,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>40</v>
       </c>
@@ -20345,7 +20261,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>27</v>
       </c>
@@ -20394,7 +20310,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>27</v>
       </c>
@@ -20443,7 +20359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -20492,7 +20408,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>27</v>
       </c>
@@ -20541,7 +20457,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>40</v>
       </c>
@@ -20590,7 +20506,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>27</v>
       </c>
@@ -20639,7 +20555,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>27</v>
       </c>
@@ -20688,7 +20604,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>27</v>
       </c>
@@ -20737,7 +20653,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>27</v>
       </c>
@@ -20786,7 +20702,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>27</v>
       </c>
@@ -20835,7 +20751,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>27</v>
       </c>
@@ -20884,7 +20800,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>27</v>
       </c>
@@ -20933,7 +20849,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>27</v>
       </c>
@@ -20982,7 +20898,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>27</v>
       </c>
@@ -21031,7 +20947,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>66</v>
